--- a/德福词汇/德福词汇2019.xlsx
+++ b/德福词汇/德福词汇2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\德福词汇\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E62C5-42D1-4EF3-A175-AF53F08B9F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18E9E0-1DCD-5C40-B02C-D0D352EDD397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="14460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="正确" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="325">
   <si>
     <t>ZH</t>
   </si>
@@ -2661,6 +2661,92 @@
   </si>
   <si>
     <t>verabschieden sich von D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A unter Lupe nehmen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">beschleunigen </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legen Grundstein für</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>überwinden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziehlen auf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorgen sich um</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>einreichnen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irren sich mit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unterhalten sich mit D über A </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>überein/stimmen mit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>......</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>一致</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bewätigen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fällen / abholzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an bedeutung verlieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etablieren / begründen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2668,7 +2754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2789,6 +2875,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2856,7 +2948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2931,6 +3023,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3215,19 +3313,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16D18BC-F744-4A05-A1D2-D6C19771F47C}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -3238,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -3249,7 +3347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3260,7 +3358,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3271,7 +3369,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3282,7 +3380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3293,7 +3391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3304,7 +3402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -3315,7 +3413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3326,7 +3424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -3337,7 +3435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -3348,7 +3446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -3359,7 +3457,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -3370,7 +3468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -3381,7 +3479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -3392,7 +3490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -3403,7 +3501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -3414,7 +3512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -3425,7 +3523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -3436,7 +3534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -3447,7 +3545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -3458,7 +3556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -3469,7 +3567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A23" s="4">
         <v>0</v>
       </c>
@@ -3480,7 +3578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A24" s="4">
         <v>0</v>
       </c>
@@ -3491,7 +3589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -3502,7 +3600,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A26" s="4">
         <v>0</v>
       </c>
@@ -3513,7 +3611,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A27" s="4">
         <v>0</v>
       </c>
@@ -3524,7 +3622,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -3535,7 +3633,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A29" s="4">
         <v>0</v>
       </c>
@@ -3546,7 +3644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A30" s="4">
         <v>0</v>
       </c>
@@ -3557,7 +3655,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -3568,7 +3666,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A32" s="4">
         <v>0</v>
       </c>
@@ -3579,7 +3677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A33" s="4">
         <v>0</v>
       </c>
@@ -3590,7 +3688,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -3601,7 +3699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -3612,7 +3710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A36" s="4">
         <v>0</v>
       </c>
@@ -3623,7 +3721,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A37" s="4">
         <v>0</v>
       </c>
@@ -3634,7 +3732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A38" s="4">
         <v>0</v>
       </c>
@@ -3645,7 +3743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A39" s="4">
         <v>0</v>
       </c>
@@ -3656,7 +3754,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A40" s="4">
         <v>0</v>
       </c>
@@ -3667,7 +3765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A41" s="4">
         <v>0</v>
       </c>
@@ -3678,7 +3776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -3689,7 +3787,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A43" s="4">
         <v>0</v>
       </c>
@@ -3700,7 +3798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A44" s="4">
         <v>0</v>
       </c>
@@ -3711,7 +3809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A45" s="4">
         <v>0</v>
       </c>
@@ -3722,7 +3820,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A46" s="4">
         <v>0</v>
       </c>
@@ -3733,7 +3831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A47" s="4">
         <v>0</v>
       </c>
@@ -3744,7 +3842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A48" s="4">
         <v>0</v>
       </c>
@@ -3755,7 +3853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A49" s="4">
         <v>0</v>
       </c>
@@ -3766,7 +3864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A50" s="4">
         <v>0</v>
       </c>
@@ -3777,7 +3875,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="13" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" s="13" customFormat="1" ht="21" thickBot="1">
       <c r="A51" s="13">
         <v>1</v>
       </c>
@@ -3789,7 +3887,7 @@
       </c>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A52" s="4">
         <v>0</v>
       </c>
@@ -3801,7 +3899,7 @@
       </c>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A53" s="4">
         <v>0</v>
       </c>
@@ -3813,7 +3911,7 @@
       </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A54" s="4">
         <v>0</v>
       </c>
@@ -3825,7 +3923,7 @@
       </c>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A55" s="4">
         <v>0</v>
       </c>
@@ -3837,7 +3935,7 @@
       </c>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A56" s="4">
         <v>0</v>
       </c>
@@ -3849,7 +3947,7 @@
       </c>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A57" s="4">
         <v>0</v>
       </c>
@@ -3861,7 +3959,7 @@
       </c>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A58" s="4">
         <v>0</v>
       </c>
@@ -3873,7 +3971,7 @@
       </c>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -3885,7 +3983,7 @@
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A60" s="4">
         <v>0</v>
       </c>
@@ -3897,7 +3995,7 @@
       </c>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A61" s="4">
         <v>0</v>
       </c>
@@ -3909,7 +4007,7 @@
       </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A62" s="4">
         <v>0</v>
       </c>
@@ -3921,7 +4019,7 @@
       </c>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A63" s="4">
         <v>0</v>
       </c>
@@ -3933,7 +4031,7 @@
       </c>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A64" s="4">
         <v>0</v>
       </c>
@@ -3945,7 +4043,7 @@
       </c>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A65" s="4">
         <v>0</v>
       </c>
@@ -3957,7 +4055,7 @@
       </c>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A66" s="4">
         <v>0</v>
       </c>
@@ -3969,7 +4067,7 @@
       </c>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A67" s="4">
         <v>0</v>
       </c>
@@ -3981,7 +4079,7 @@
       </c>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -3993,7 +4091,7 @@
       </c>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A69" s="4">
         <v>0</v>
       </c>
@@ -4005,7 +4103,7 @@
       </c>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A70" s="4">
         <v>0</v>
       </c>
@@ -4017,7 +4115,7 @@
       </c>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A71" s="4">
         <v>0</v>
       </c>
@@ -4029,7 +4127,7 @@
       </c>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A72" s="4">
         <v>0</v>
       </c>
@@ -4041,7 +4139,7 @@
       </c>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A73" s="4">
         <v>0</v>
       </c>
@@ -4053,7 +4151,7 @@
       </c>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A74" s="4">
         <v>0</v>
       </c>
@@ -4065,7 +4163,7 @@
       </c>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -4077,7 +4175,7 @@
       </c>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" ht="21" thickBot="1">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -4089,7 +4187,7 @@
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" ht="21" thickBot="1">
       <c r="A77" s="4">
         <v>1</v>
       </c>
@@ -4101,7 +4199,7 @@
       </c>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" ht="21" thickBot="1">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -4113,7 +4211,7 @@
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" ht="21" thickBot="1">
       <c r="A79" s="4">
         <v>0</v>
       </c>
@@ -4125,7 +4223,7 @@
       </c>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" ht="21" thickBot="1">
       <c r="A80" s="4">
         <v>1</v>
       </c>
@@ -4137,7 +4235,7 @@
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" ht="21" thickBot="1">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -4149,7 +4247,7 @@
       </c>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" ht="21" thickBot="1">
       <c r="A82" s="4">
         <v>2</v>
       </c>
@@ -4161,7 +4259,7 @@
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" ht="21" thickBot="1">
       <c r="A83" s="4">
         <v>0</v>
       </c>
@@ -4173,7 +4271,7 @@
       </c>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" ht="21" thickBot="1">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -4185,7 +4283,7 @@
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" ht="21" thickBot="1">
       <c r="A85" s="4">
         <v>0</v>
       </c>
@@ -4197,7 +4295,7 @@
       </c>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" ht="21" thickBot="1">
       <c r="A86" s="4">
         <v>0</v>
       </c>
@@ -4209,7 +4307,7 @@
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" ht="21" thickBot="1">
       <c r="A87" s="4">
         <v>0</v>
       </c>
@@ -4221,7 +4319,7 @@
       </c>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" ht="21" thickBot="1">
       <c r="A88" s="4">
         <v>0</v>
       </c>
@@ -4233,7 +4331,7 @@
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" ht="21" thickBot="1">
       <c r="A89" s="4">
         <v>0</v>
       </c>
@@ -4245,7 +4343,7 @@
       </c>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" ht="21" thickBot="1">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -4257,7 +4355,7 @@
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" ht="21" thickBot="1">
       <c r="A91" s="4">
         <v>0</v>
       </c>
@@ -4269,7 +4367,7 @@
       </c>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" ht="21" thickBot="1">
       <c r="A92" s="4">
         <v>1</v>
       </c>
@@ -4281,7 +4379,7 @@
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" ht="21" thickBot="1">
       <c r="A93" s="4">
         <v>0</v>
       </c>
@@ -4293,7 +4391,7 @@
       </c>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" ht="21" thickBot="1">
       <c r="A94" s="4">
         <v>0</v>
       </c>
@@ -4305,7 +4403,7 @@
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" ht="21" thickBot="1">
       <c r="A95" s="4">
         <v>0</v>
       </c>
@@ -4317,7 +4415,7 @@
       </c>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" ht="21" thickBot="1">
       <c r="A96" s="4">
         <v>1</v>
       </c>
@@ -4329,7 +4427,7 @@
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" ht="21" thickBot="1">
       <c r="A97" s="4">
         <v>1</v>
       </c>
@@ -4341,7 +4439,7 @@
       </c>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="21" thickBot="1">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -4353,7 +4451,7 @@
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="21" thickBot="1">
       <c r="A99" s="4">
         <v>0</v>
       </c>
@@ -4365,7 +4463,7 @@
       </c>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" ht="21" thickBot="1">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -4391,19 +4489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7709FD4-AF83-4E3C-8F40-C4DC271C9892}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -4414,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -4425,7 +4523,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4436,7 +4534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4447,7 +4545,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4458,7 +4556,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -4469,7 +4567,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -4480,7 +4578,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -4491,7 +4589,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -4502,7 +4600,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -4513,7 +4611,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -4524,7 +4622,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -4535,7 +4633,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -4546,7 +4644,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -4557,7 +4655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -4568,7 +4666,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -4579,7 +4677,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -4590,7 +4688,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -4601,7 +4699,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -4612,7 +4710,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -4623,7 +4721,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -4634,7 +4732,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -4645,7 +4743,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -4656,7 +4754,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -4667,7 +4765,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -4678,7 +4776,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -4689,7 +4787,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A27" s="13">
         <v>1</v>
       </c>
@@ -4700,7 +4798,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -4711,7 +4809,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -4722,7 +4820,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -4733,7 +4831,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -4744,7 +4842,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -4755,7 +4853,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -4766,7 +4864,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -4777,7 +4875,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -4788,7 +4886,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -4799,7 +4897,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -4810,7 +4908,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -4821,7 +4919,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -4832,7 +4930,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -4843,7 +4941,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -4854,7 +4952,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -4865,7 +4963,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A43" s="4">
         <v>0</v>
       </c>
@@ -4876,7 +4974,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A44" s="4">
         <v>0</v>
       </c>
@@ -4887,7 +4985,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A45" s="4">
         <v>0</v>
       </c>
@@ -4898,7 +4996,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A46" s="4">
         <v>0</v>
       </c>
@@ -4909,7 +5007,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A47" s="4">
         <v>0</v>
       </c>
@@ -4920,7 +5018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A48" s="4">
         <v>0</v>
       </c>
@@ -4931,7 +5029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A49" s="4">
         <v>0</v>
       </c>
@@ -4942,7 +5040,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A50" s="4">
         <v>0</v>
       </c>
@@ -4953,7 +5051,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="13" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" s="13" customFormat="1" ht="20" thickBot="1">
       <c r="A51" s="4">
         <v>0</v>
       </c>
@@ -4965,7 +5063,7 @@
       </c>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A52" s="4">
         <v>0</v>
       </c>
@@ -4977,7 +5075,7 @@
       </c>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A53" s="4">
         <v>0</v>
       </c>
@@ -4989,7 +5087,7 @@
       </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A54" s="4">
         <v>0</v>
       </c>
@@ -5001,7 +5099,7 @@
       </c>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A55" s="4">
         <v>0</v>
       </c>
@@ -5013,7 +5111,7 @@
       </c>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A56" s="4">
         <v>0</v>
       </c>
@@ -5025,7 +5123,7 @@
       </c>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A57" s="4">
         <v>0</v>
       </c>
@@ -5037,7 +5135,7 @@
       </c>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A58" s="4">
         <v>0</v>
       </c>
@@ -5049,7 +5147,7 @@
       </c>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A59" s="4">
         <v>0</v>
       </c>
@@ -5061,7 +5159,7 @@
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A60" s="4">
         <v>0</v>
       </c>
@@ -5073,7 +5171,7 @@
       </c>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A61" s="4">
         <v>0</v>
       </c>
@@ -5085,7 +5183,7 @@
       </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A62" s="4">
         <v>0</v>
       </c>
@@ -5097,7 +5195,7 @@
       </c>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A63" s="4">
         <v>0</v>
       </c>
@@ -5109,7 +5207,7 @@
       </c>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A64" s="4">
         <v>0</v>
       </c>
@@ -5121,7 +5219,7 @@
       </c>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A65" s="4">
         <v>0</v>
       </c>
@@ -5133,7 +5231,7 @@
       </c>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A66" s="4">
         <v>0</v>
       </c>
@@ -5145,7 +5243,7 @@
       </c>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A67" s="4">
         <v>0</v>
       </c>
@@ -5157,7 +5255,7 @@
       </c>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A68" s="4">
         <v>0</v>
       </c>
@@ -5169,7 +5267,7 @@
       </c>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A69" s="4">
         <v>0</v>
       </c>
@@ -5181,7 +5279,7 @@
       </c>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A70" s="4">
         <v>0</v>
       </c>
@@ -5193,7 +5291,7 @@
       </c>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A71" s="4">
         <v>0</v>
       </c>
@@ -5205,7 +5303,7 @@
       </c>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A72" s="4">
         <v>0</v>
       </c>
@@ -5217,7 +5315,7 @@
       </c>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A73" s="4">
         <v>0</v>
       </c>
@@ -5229,7 +5327,7 @@
       </c>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A74" s="4">
         <v>0</v>
       </c>
@@ -5241,7 +5339,7 @@
       </c>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A75" s="4">
         <v>0</v>
       </c>
@@ -5253,7 +5351,7 @@
       </c>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" ht="21" thickBot="1">
       <c r="A76" s="4">
         <v>0</v>
       </c>
@@ -5265,7 +5363,7 @@
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" ht="21" thickBot="1">
       <c r="A77" s="4">
         <v>0</v>
       </c>
@@ -5277,7 +5375,7 @@
       </c>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" ht="21" thickBot="1">
       <c r="A78" s="4">
         <v>0</v>
       </c>
@@ -5289,7 +5387,7 @@
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" ht="21" thickBot="1">
       <c r="A79" s="4">
         <v>0</v>
       </c>
@@ -5301,7 +5399,7 @@
       </c>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" ht="21" thickBot="1">
       <c r="A80" s="4">
         <v>0</v>
       </c>
@@ -5313,7 +5411,7 @@
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" ht="21" thickBot="1">
       <c r="A81" s="4">
         <v>0</v>
       </c>
@@ -5325,7 +5423,7 @@
       </c>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" ht="21" thickBot="1">
       <c r="A82" s="4">
         <v>0</v>
       </c>
@@ -5337,7 +5435,7 @@
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" ht="21" thickBot="1">
       <c r="A83" s="4">
         <v>0</v>
       </c>
@@ -5349,7 +5447,7 @@
       </c>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" ht="21" thickBot="1">
       <c r="A84" s="4">
         <v>0</v>
       </c>
@@ -5361,7 +5459,7 @@
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" ht="21" thickBot="1">
       <c r="A85" s="4">
         <v>0</v>
       </c>
@@ -5373,7 +5471,7 @@
       </c>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" ht="21" thickBot="1">
       <c r="A86" s="4">
         <v>0</v>
       </c>
@@ -5385,7 +5483,7 @@
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" ht="21" thickBot="1">
       <c r="A87" s="4">
         <v>0</v>
       </c>
@@ -5397,7 +5495,7 @@
       </c>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" ht="21" thickBot="1">
       <c r="A88" s="4">
         <v>0</v>
       </c>
@@ -5409,7 +5507,7 @@
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" ht="21" thickBot="1">
       <c r="A89" s="4">
         <v>0</v>
       </c>
@@ -5421,7 +5519,7 @@
       </c>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" ht="21" thickBot="1">
       <c r="A90" s="4">
         <v>0</v>
       </c>
@@ -5433,7 +5531,7 @@
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" ht="21" thickBot="1">
       <c r="A91" s="4">
         <v>0</v>
       </c>
@@ -5445,7 +5543,7 @@
       </c>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" ht="21" thickBot="1">
       <c r="A92" s="4">
         <v>0</v>
       </c>
@@ -5457,7 +5555,7 @@
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" ht="21" thickBot="1">
       <c r="A93" s="4">
         <v>0</v>
       </c>
@@ -5469,7 +5567,7 @@
       </c>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" ht="21" thickBot="1">
       <c r="A94" s="4">
         <v>0</v>
       </c>
@@ -5481,7 +5579,7 @@
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" ht="21" thickBot="1">
       <c r="A95" s="4">
         <v>0</v>
       </c>
@@ -5493,7 +5591,7 @@
       </c>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" ht="21" thickBot="1">
       <c r="A96" s="4">
         <v>0</v>
       </c>
@@ -5505,7 +5603,7 @@
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" ht="21" thickBot="1">
       <c r="A97" s="4">
         <v>0</v>
       </c>
@@ -5517,7 +5615,7 @@
       </c>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="21" thickBot="1">
       <c r="A98" s="4">
         <v>0</v>
       </c>
@@ -5529,7 +5627,7 @@
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="21" thickBot="1">
       <c r="A99" s="4">
         <v>0</v>
       </c>
@@ -5541,7 +5639,7 @@
       </c>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" ht="21" thickBot="1">
       <c r="A100" s="4">
         <v>0</v>
       </c>
@@ -5566,19 +5664,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D213259-1967-4076-AC86-1FA8895C2191}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -5589,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -5600,18 +5698,18 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5622,7 +5720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -5633,7 +5731,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -5644,7 +5742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -5655,7 +5753,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -5666,7 +5764,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -5677,7 +5775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5688,7 +5786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -5699,7 +5797,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -5710,7 +5808,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5721,7 +5819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -5732,7 +5830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -5743,7 +5841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -5754,7 +5852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -5765,7 +5863,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -5776,7 +5874,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -5787,7 +5885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -5798,7 +5896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -5809,7 +5907,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -5820,7 +5918,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -5831,7 +5929,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -5842,7 +5940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -5853,7 +5951,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -5864,7 +5962,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A27" s="13">
         <v>2</v>
       </c>
@@ -5875,7 +5973,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -5886,7 +5984,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -5897,7 +5995,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -5908,7 +6006,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -5919,7 +6017,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -5930,7 +6028,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -5941,7 +6039,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -5952,7 +6050,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -5963,7 +6061,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A36" s="4">
         <v>2</v>
       </c>
@@ -5974,7 +6072,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -5985,7 +6083,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -5996,7 +6094,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -6007,7 +6105,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -6018,7 +6116,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -6029,7 +6127,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -6040,576 +6138,692 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A43" s="4">
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A44" s="4">
-        <v>0</v>
-      </c>
-      <c r="B44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A45" s="4">
         <v>0</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A46" s="4">
         <v>0</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A47" s="4">
         <v>0</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A48" s="4">
         <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A49" s="4">
         <v>0</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C49" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A50" s="4">
         <v>0</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" s="13" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="13" customFormat="1" ht="20" thickBot="1">
       <c r="A51" s="4">
         <v>0</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="23" t="s">
+        <v>218</v>
+      </c>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A52" s="4">
-        <v>0</v>
-      </c>
-      <c r="B52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="23" t="s">
+        <v>316</v>
+      </c>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A53" s="4">
         <v>0</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A54" s="4">
         <v>0</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="D54" s="12"/>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A55" s="4">
         <v>0</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="23" t="s">
+        <v>312</v>
+      </c>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A56" s="4">
         <v>0</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A57" s="4">
-        <v>0</v>
-      </c>
-      <c r="B57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="23" t="s">
+        <v>317</v>
+      </c>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A58" s="4">
-        <v>0</v>
-      </c>
-      <c r="B58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A59" s="4">
         <v>0</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A60" s="4">
-        <v>0</v>
-      </c>
-      <c r="B60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="23" t="s">
+        <v>226</v>
+      </c>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A61" s="4">
         <v>0</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="23" t="s">
+        <v>318</v>
+      </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A62" s="4">
         <v>0</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A63" s="4">
         <v>0</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A64" s="4">
         <v>0</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A65" s="4">
         <v>0</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="23"/>
+      <c r="C65" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A66" s="4">
         <v>0</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="23"/>
+      <c r="C66" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A67" s="4">
         <v>0</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="23"/>
+      <c r="C67" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A68" s="4">
-        <v>0</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A69" s="4">
-        <v>0</v>
-      </c>
-      <c r="B69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="28"/>
+      <c r="C69" s="28" t="s">
+        <v>321</v>
+      </c>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A70" s="4">
         <v>0</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="12"/>
+      <c r="C70" s="12" t="s">
+        <v>314</v>
+      </c>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A71" s="4">
         <v>0</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A72" s="4">
         <v>0</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="12"/>
+      <c r="C72" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A73" s="4">
         <v>0</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="11"/>
+      <c r="C73" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A74" s="4">
-        <v>0</v>
-      </c>
-      <c r="B74" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="12"/>
+      <c r="C74" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A75" s="4">
-        <v>0</v>
-      </c>
-      <c r="B75" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="12"/>
+      <c r="C75" s="12" t="s">
+        <v>240</v>
+      </c>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" ht="21" thickBot="1">
       <c r="A76" s="4">
         <v>0</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" ht="21" thickBot="1">
       <c r="A77" s="4">
-        <v>0</v>
-      </c>
-      <c r="B77" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="12"/>
+      <c r="C77" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" ht="21" thickBot="1">
       <c r="A78" s="4">
-        <v>0</v>
-      </c>
-      <c r="B78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="11"/>
+      <c r="C78" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" ht="21" thickBot="1">
       <c r="A79" s="4">
-        <v>0</v>
-      </c>
-      <c r="B79" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C79" s="12"/>
+      <c r="C79" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" ht="21" thickBot="1">
       <c r="A80" s="4">
-        <v>0</v>
-      </c>
-      <c r="B80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="11"/>
+      <c r="C80" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" ht="21" thickBot="1">
       <c r="A81" s="4">
-        <v>0</v>
-      </c>
-      <c r="B81" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="12"/>
+      <c r="C81" s="12" t="s">
+        <v>322</v>
+      </c>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" ht="21" thickBot="1">
       <c r="A82" s="4">
-        <v>0</v>
-      </c>
-      <c r="B82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="11"/>
+      <c r="C82" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" ht="21" thickBot="1">
       <c r="A83" s="4">
-        <v>0</v>
-      </c>
-      <c r="B83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="11"/>
+      <c r="C83" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" ht="21" thickBot="1">
       <c r="A84" s="4">
         <v>0</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="12"/>
+      <c r="C84" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" ht="21" thickBot="1">
       <c r="A85" s="4">
         <v>0</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="11"/>
+      <c r="C85" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" ht="21" thickBot="1">
       <c r="A86" s="4">
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C86" s="12"/>
+      <c r="C86" s="12" t="s">
+        <v>251</v>
+      </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" ht="21" thickBot="1">
       <c r="A87" s="4">
         <v>0</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C87" s="11"/>
+      <c r="C87" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" ht="21" thickBot="1">
       <c r="A88" s="4">
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" ht="21" thickBot="1">
       <c r="A89" s="4">
-        <v>0</v>
-      </c>
-      <c r="B89" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" ht="21" thickBot="1">
       <c r="A90" s="4">
         <v>0</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="7"/>
+      <c r="C90" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" ht="21" thickBot="1">
       <c r="A91" s="4">
         <v>0</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="7"/>
+      <c r="C91" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" ht="21" thickBot="1">
       <c r="A92" s="4">
-        <v>0</v>
-      </c>
-      <c r="B92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="8"/>
+      <c r="C92" s="8" t="s">
+        <v>259</v>
+      </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" ht="21" thickBot="1">
       <c r="A93" s="4">
         <v>0</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="7"/>
+      <c r="C93" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" ht="21" thickBot="1">
       <c r="A94" s="4">
         <v>0</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="8"/>
+      <c r="C94" s="8" t="s">
+        <v>260</v>
+      </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" ht="21" thickBot="1">
       <c r="A95" s="4">
         <v>0</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" ht="21" thickBot="1">
       <c r="A96" s="4">
         <v>0</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C96" s="7"/>
+      <c r="C96" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" ht="21" thickBot="1">
       <c r="A97" s="4">
         <v>0</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C97" s="7"/>
+      <c r="C97" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" ht="21" thickBot="1">
       <c r="A98" s="4">
-        <v>0</v>
-      </c>
-      <c r="B98" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="21" thickBot="1">
       <c r="A99" s="4">
         <v>0</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="7"/>
+      <c r="C99" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" ht="21" thickBot="1">
       <c r="A100" s="4">
         <v>0</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="D100" s="8"/>
     </row>
   </sheetData>

--- a/德福词汇/德福词汇2019.xlsx
+++ b/德福词汇/德福词汇2019.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18E9E0-1DCD-5C40-B02C-D0D352EDD397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE90529-1CF5-6841-B966-748C719997B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="14460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="正确" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="283">
   <si>
     <t>ZH</t>
   </si>
@@ -2105,65 +2104,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ereigen sich </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>beruhen auf D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vertiefen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auszahlen sich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">beleidigen </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bestreiten</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drohen D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eintreten für</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entkommen D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abspielen sich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ignorieren</t>
-  </si>
-  <si>
     <t>A ins Leben rufen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">lockern </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teilhaben an D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verlaufen sich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vernichten</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,14 +2124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zuspitzen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A unter die Lupe Nehmen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>anlügen jn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2188,102 +2132,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ausbuchen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aussterben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>befürworten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>berücksichtigen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beschleunigen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>einfallen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>erfinden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ertrinken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grundstein für A legen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>herausgeben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>irren sich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loswerden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missfallen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scheinen zu tun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sich mit D über A unterhalten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transportieren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>überlassen jm A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umgehen A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unterschätzen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verbilligen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vernachlässigen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>übereinstimmen mit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>überwinden A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zielen auf A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gelangen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2300,10 +2156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sorgen sich um A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>angreiffen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2320,10 +2172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fällen A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abwaschen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2352,18 +2200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">aussetzen </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an Bedeutung verlieren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>versorgen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zustimmen D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2392,10 +2228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>etablieren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>begehen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2408,10 +2240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vorwerfen D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>besitzen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2428,30 +2256,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gestehen A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vermehren sich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ausbauen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dementieren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">einreichnen </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Einwand gegen A erheben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>entlasten</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2460,10 +2268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bewältigen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unter D leiden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2484,10 +2288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>befreien jn von D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以…供应某人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2501,10 +2301,6 @@
   </si>
   <si>
     <t>reduzieren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">verabschieden sich von D </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2652,14 +2448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aussetzen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>verabschieden sich von D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2742,11 +2530,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>an bedeutung verlieren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>etablieren / begründen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aussetzen bei D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断，从...暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versorgen jn mit D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谴责某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erteilen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给，给予</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erhalten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收，保持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵达，进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逐渐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失去/获得重要性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an bedeutung verlieren/gewinnen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2948,7 +2814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3029,6 +2895,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3313,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16D18BC-F744-4A05-A1D2-D6C19771F47C}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3355,7 +3227,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -3597,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -4171,7 +4043,7 @@
         <v>145</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="D75" s="11"/>
     </row>
@@ -4231,7 +4103,7 @@
         <v>171</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
     </row>
@@ -4240,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="D81" s="7"/>
     </row>
@@ -4375,7 +4247,7 @@
         <v>182</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
     </row>
@@ -4486,17 +4358,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7709FD4-AF83-4E3C-8F40-C4DC271C9892}">
-  <dimension ref="A1:D100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D213259-1967-4076-AC86-1FA8895C2191}">
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -4520,18 +4392,18 @@
         <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -4542,7 +4414,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -4553,7 +4425,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -4564,7 +4436,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -4575,7 +4447,7 @@
         <v>172</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -4586,1182 +4458,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A35" s="4">
-        <v>1</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A36" s="4">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A39" s="4">
-        <v>1</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A40" s="4">
-        <v>1</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A41" s="4">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A42" s="4">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A43" s="4">
-        <v>0</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A44" s="4">
-        <v>0</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A45" s="4">
-        <v>0</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A46" s="4">
-        <v>0</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A47" s="4">
-        <v>0</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A48" s="4">
-        <v>0</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A49" s="4">
-        <v>0</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A50" s="4">
-        <v>0</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="13" customFormat="1" ht="20" thickBot="1">
-      <c r="A51" s="4">
-        <v>0</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A52" s="4">
-        <v>0</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A53" s="4">
-        <v>0</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A54" s="4">
-        <v>0</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A55" s="4">
-        <v>0</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A56" s="4">
-        <v>0</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A57" s="4">
-        <v>0</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A58" s="4">
-        <v>0</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A59" s="4">
-        <v>0</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A60" s="4">
-        <v>0</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A61" s="4">
-        <v>0</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A62" s="4">
-        <v>0</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A63" s="4">
-        <v>0</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="23" t="s">
         <v>229</v>
-      </c>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A64" s="4">
-        <v>0</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A65" s="4">
-        <v>0</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A66" s="4">
-        <v>0</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D66" s="12"/>
-    </row>
-    <row r="67" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A67" s="4">
-        <v>0</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A68" s="4">
-        <v>0</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A69" s="4">
-        <v>0</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A70" s="4">
-        <v>0</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A71" s="4">
-        <v>0</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A72" s="4">
-        <v>0</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" s="12"/>
-    </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A73" s="4">
-        <v>0</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A74" s="4">
-        <v>0</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A75" s="4">
-        <v>0</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="1:4" ht="21" thickBot="1">
-      <c r="A76" s="4">
-        <v>0</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" ht="21" thickBot="1">
-      <c r="A77" s="4">
-        <v>0</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" ht="21" thickBot="1">
-      <c r="A78" s="4">
-        <v>0</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" ht="21" thickBot="1">
-      <c r="A79" s="4">
-        <v>0</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" ht="21" thickBot="1">
-      <c r="A80" s="4">
-        <v>0</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" ht="21" thickBot="1">
-      <c r="A81" s="4">
-        <v>0</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" ht="21" thickBot="1">
-      <c r="A82" s="4">
-        <v>0</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="1:4" ht="21" thickBot="1">
-      <c r="A83" s="4">
-        <v>0</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" ht="21" thickBot="1">
-      <c r="A84" s="4">
-        <v>0</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="1:4" ht="21" thickBot="1">
-      <c r="A85" s="4">
-        <v>0</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" ht="21" thickBot="1">
-      <c r="A86" s="4">
-        <v>0</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="1:4" ht="21" thickBot="1">
-      <c r="A87" s="4">
-        <v>0</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="1:4" ht="21" thickBot="1">
-      <c r="A88" s="4">
-        <v>0</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" spans="1:4" ht="21" thickBot="1">
-      <c r="A89" s="4">
-        <v>0</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="1:4" ht="21" thickBot="1">
-      <c r="A90" s="4">
-        <v>0</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="1:4" ht="21" thickBot="1">
-      <c r="A91" s="4">
-        <v>0</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" s="7"/>
-    </row>
-    <row r="92" spans="1:4" ht="21" thickBot="1">
-      <c r="A92" s="4">
-        <v>0</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="1:4" ht="21" thickBot="1">
-      <c r="A93" s="4">
-        <v>0</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" spans="1:4" ht="21" thickBot="1">
-      <c r="A94" s="4">
-        <v>0</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="1:4" ht="21" thickBot="1">
-      <c r="A95" s="4">
-        <v>0</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:4" ht="21" thickBot="1">
-      <c r="A96" s="4">
-        <v>0</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="1:4" ht="21" thickBot="1">
-      <c r="A97" s="4">
-        <v>0</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="1:4" ht="21" thickBot="1">
-      <c r="A98" s="4">
-        <v>0</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="1:4" ht="21" thickBot="1">
-      <c r="A99" s="4">
-        <v>0</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="1:4" ht="21" thickBot="1">
-      <c r="A100" s="4">
-        <v>0</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="8"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C100">
-    <sortCondition descending="1" ref="A31"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D213259-1967-4076-AC86-1FA8895C2191}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -5783,7 +4480,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -5794,7 +4491,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -5805,7 +4502,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -5860,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -5871,7 +4568,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -5904,7 +4601,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -5915,7 +4612,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -5926,7 +4623,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -5948,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -5959,7 +4656,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -5970,7 +4667,7 @@
         <v>118</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -5981,7 +4678,7 @@
         <v>128</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -5992,7 +4689,7 @@
         <v>138</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6003,7 +4700,7 @@
         <v>145</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6011,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6025,7 +4722,7 @@
         <v>166</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6036,7 +4733,7 @@
         <v>167</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6047,29 +4744,29 @@
         <v>171</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6080,7 +4777,7 @@
         <v>180</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6091,7 +4788,7 @@
         <v>182</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6102,7 +4799,7 @@
         <v>187</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6113,18 +4810,18 @@
         <v>188</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A41" s="4">
         <v>1</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>189</v>
+      <c r="B41" s="29" t="s">
+        <v>274</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" ht="21" thickBot="1">
@@ -6135,7 +4832,7 @@
         <v>191</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -6146,7 +4843,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -6157,7 +4854,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -6168,7 +4865,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1">
@@ -6223,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="13" customFormat="1" ht="20" thickBot="1">
@@ -6234,7 +4931,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D51" s="14"/>
     </row>
@@ -6246,7 +4943,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="D52" s="12"/>
     </row>
@@ -6282,7 +4979,7 @@
         <v>33</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="D55" s="11"/>
     </row>
@@ -6306,13 +5003,13 @@
         <v>27</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>4</v>
@@ -6342,7 +5039,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D60" s="12"/>
     </row>
@@ -6354,7 +5051,7 @@
         <v>44</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="D61" s="11"/>
     </row>
@@ -6432,25 +5129,25 @@
     </row>
     <row r="68" spans="1:4" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" s="4" customFormat="1" ht="20" thickBot="1">
       <c r="A69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="D69" s="11"/>
     </row>
@@ -6462,7 +5159,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -6474,7 +5171,7 @@
         <v>124</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="D71" s="11"/>
     </row>
@@ -6486,7 +5183,7 @@
         <v>125</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -6498,7 +5195,7 @@
         <v>126</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="D73" s="11"/>
     </row>
@@ -6510,7 +5207,7 @@
         <v>127</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -6522,7 +5219,7 @@
         <v>129</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="D75" s="11"/>
     </row>
@@ -6534,7 +5231,7 @@
         <v>130</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="D76" s="8"/>
     </row>
@@ -6546,43 +5243,43 @@
         <v>132</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="21" thickBot="1">
       <c r="A78" s="4">
-        <v>1</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D78" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="21" thickBot="1">
       <c r="A79" s="4">
-        <v>1</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>244</v>
+        <v>0</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>277</v>
       </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="21" thickBot="1">
-      <c r="A80" s="4">
-        <v>1</v>
+      <c r="A80" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D80" s="8"/>
     </row>
@@ -6591,10 +5288,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="D81" s="7"/>
     </row>
@@ -6603,10 +5300,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -6615,34 +5312,34 @@
         <v>1</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>248</v>
+        <v>136</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" ht="21" thickBot="1">
       <c r="A84" s="4">
-        <v>0</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>249</v>
+        <v>2</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" ht="21" thickBot="1">
       <c r="A85" s="4">
-        <v>0</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="D85" s="7"/>
     </row>
@@ -6651,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="D86" s="8"/>
     </row>
@@ -6663,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D87" s="7"/>
     </row>
@@ -6675,22 +5372,22 @@
         <v>0</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4" ht="21" thickBot="1">
       <c r="A89" s="4">
-        <v>1</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>323</v>
+        <v>0</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="D89" s="7"/>
     </row>
@@ -6698,35 +5395,35 @@
       <c r="A90" s="4">
         <v>0</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>257</v>
+      <c r="B90" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:4" ht="21" thickBot="1">
+    <row r="91" spans="1:4" ht="40" thickBot="1">
       <c r="A91" s="4">
-        <v>0</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>175</v>
+        <v>1</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>281</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" ht="21" thickBot="1">
       <c r="A92" s="4">
-        <v>1</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>259</v>
+        <v>0</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D92" s="8"/>
     </row>
@@ -6734,23 +5431,23 @@
       <c r="A93" s="4">
         <v>0</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>177</v>
+      <c r="B93" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" ht="21" thickBot="1">
       <c r="A94" s="4">
-        <v>0</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>178</v>
+        <v>1</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>176</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D94" s="8"/>
     </row>
@@ -6759,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D95" s="7"/>
     </row>
@@ -6770,11 +5467,11 @@
       <c r="A96" s="4">
         <v>0</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>262</v>
+      <c r="B96" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="D96" s="8"/>
     </row>
@@ -6782,23 +5479,23 @@
       <c r="A97" s="4">
         <v>0</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>183</v>
+      <c r="B97" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" ht="21" thickBot="1">
       <c r="A98" s="4">
-        <v>1</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="D98" s="8"/>
     </row>
@@ -6806,25 +5503,49 @@
       <c r="A99" s="4">
         <v>0</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>186</v>
+      <c r="B99" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" ht="21" thickBot="1">
       <c r="A100" s="4">
-        <v>0</v>
-      </c>
-      <c r="B100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" ht="21" thickBot="1">
+      <c r="A101" s="4">
+        <v>0</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" ht="21" thickBot="1">
+      <c r="A102" s="4">
+        <v>0</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="8"/>
+      <c r="C102" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D102" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
